--- a/Data/EC/NIT-9002853840.xlsx
+++ b/Data/EC/NIT-9002853840.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA2A94CC-31D1-4352-98C6-740A2C86DEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D3A950-E78E-4D68-A02F-19A16EC1823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{708BF770-F8C8-4FFC-9A7B-070D75F9EA8D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8EC0C9CB-F2C7-480F-AFE1-6DDF35BB0FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,55 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047414864</t>
+  </si>
+  <si>
+    <t>KARINA PAOLA BLANCO GAMARRA</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>33102174</t>
+  </si>
+  <si>
+    <t>ANA MARINA CALVO CARTAGENA</t>
+  </si>
+  <si>
+    <t>1052951335</t>
+  </si>
+  <si>
+    <t>AMALIA CANDELARIA GARCIA SANDOVAL</t>
+  </si>
+  <si>
+    <t>1143377977</t>
+  </si>
+  <si>
+    <t>JULIETH NILET BARRIOS MAUSSA</t>
+  </si>
+  <si>
+    <t>1128063714</t>
+  </si>
+  <si>
+    <t>KATHERINE RUIZ BLANCO</t>
+  </si>
+  <si>
     <t>1050950839</t>
   </si>
   <si>
     <t>SINDY PAOLA HERNANDEZ MACHACON</t>
   </si>
   <si>
-    <t>2306</t>
+    <t>1143325274</t>
+  </si>
+  <si>
+    <t>XIOMARA SALGADO CASSIANI</t>
+  </si>
+  <si>
+    <t>1049942585</t>
+  </si>
+  <si>
+    <t>YURIS JOHANA CUTEN JULIO</t>
   </si>
   <si>
     <t>1102830646</t>
@@ -80,76 +122,34 @@
     <t>GISSETH DEL CARMEN DECHAMP MORALES</t>
   </si>
   <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>45564420</t>
+  </si>
+  <si>
+    <t>SANDY HELENA PUPO LEON</t>
+  </si>
+  <si>
     <t>1047496345</t>
   </si>
   <si>
     <t>KEYRA LUZ NEGRETTE BAUTISTA</t>
-  </si>
-  <si>
-    <t>1052951335</t>
-  </si>
-  <si>
-    <t>AMALIA CANDELARIA GARCIA SANDOVAL</t>
-  </si>
-  <si>
-    <t>45564420</t>
-  </si>
-  <si>
-    <t>SANDY HELENA PUPO LEON</t>
-  </si>
-  <si>
-    <t>33102174</t>
-  </si>
-  <si>
-    <t>ANA MARINA CALVO CARTAGENA</t>
-  </si>
-  <si>
-    <t>1143325274</t>
-  </si>
-  <si>
-    <t>XIOMARA SALGADO CASSIANI</t>
-  </si>
-  <si>
-    <t>1143377977</t>
-  </si>
-  <si>
-    <t>JULIETH NILET BARRIOS MAUSSA</t>
-  </si>
-  <si>
-    <t>1128063714</t>
-  </si>
-  <si>
-    <t>KATHERINE RUIZ BLANCO</t>
-  </si>
-  <si>
-    <t>1047414864</t>
-  </si>
-  <si>
-    <t>KARINA PAOLA BLANCO GAMARRA</t>
-  </si>
-  <si>
-    <t>1049942585</t>
-  </si>
-  <si>
-    <t>YURIS JOHANA CUTEN JULIO</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -563,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363A0E4-C46D-5709-A9EB-98E8B8CB2265}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161FF1A9-D2B7-1A91-1176-F6B403F5FC41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD4E8C6-239D-4057-A412-0DAC756DF0B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6671739-2CCF-4716-8564-A60228DBC354}">
   <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1273,10 +1273,10 @@
         <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>25333</v>
       </c>
       <c r="G24" s="18">
         <v>1160000</v>
@@ -1290,16 +1290,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
         <v>1160000</v>
@@ -1313,13 +1313,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1336,13 +1336,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1359,13 +1359,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1382,13 +1382,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1405,13 +1405,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1428,16 +1428,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G31" s="18">
         <v>1160000</v>
@@ -1451,16 +1451,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F32" s="24">
-        <v>25333</v>
+        <v>46400</v>
       </c>
       <c r="G32" s="24">
         <v>1160000</v>

--- a/Data/EC/NIT-9002853840.xlsx
+++ b/Data/EC/NIT-9002853840.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D3A950-E78E-4D68-A02F-19A16EC1823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC63D957-2A0D-4D7A-A207-C29C1F2348FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8EC0C9CB-F2C7-480F-AFE1-6DDF35BB0FC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{98F7DD5E-F719-4812-B2E6-CB33D3EB32B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -122,34 +122,34 @@
     <t>GISSETH DEL CARMEN DECHAMP MORALES</t>
   </si>
   <si>
+    <t>45564420</t>
+  </si>
+  <si>
+    <t>SANDY HELENA PUPO LEON</t>
+  </si>
+  <si>
+    <t>1047496345</t>
+  </si>
+  <si>
+    <t>KEYRA LUZ NEGRETTE BAUTISTA</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
     <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>45564420</t>
-  </si>
-  <si>
-    <t>SANDY HELENA PUPO LEON</t>
-  </si>
-  <si>
-    <t>1047496345</t>
-  </si>
-  <si>
-    <t>KEYRA LUZ NEGRETTE BAUTISTA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -248,7 +248,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -261,9 +263,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -463,23 +463,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,10 +507,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161FF1A9-D2B7-1A91-1176-F6B403F5FC41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF51060-39ED-3C7F-7B91-D38762569894}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6671739-2CCF-4716-8564-A60228DBC354}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20C9232-4496-4280-9CD5-2799EC0BEAFC}">
   <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1095,7 +1095,7 @@
         <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1118,7 +1118,7 @@
         <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1164,7 +1164,7 @@
         <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1187,7 +1187,7 @@
         <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1210,7 +1210,7 @@
         <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1256,7 +1256,7 @@
         <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1273,13 +1273,13 @@
         <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>25333</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1290,19 +1290,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1313,19 +1313,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1342,13 +1342,13 @@
         <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1365,13 +1365,13 @@
         <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1388,13 +1388,13 @@
         <v>27</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1411,13 +1411,13 @@
         <v>27</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1428,19 +1428,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D32" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="F32" s="24">
-        <v>46400</v>
+        <v>25333</v>
       </c>
       <c r="G32" s="24">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
